--- a/Test Data/Food.xlsx
+++ b/Test Data/Food.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\EclipseWorkSpace\MISv2\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E0D4A6-1A77-48F5-BB33-02FDBE2DEF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A14B92C-714A-4C66-85D8-BE05FC80E57D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="0" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{2F57C2A4-D20C-49EB-A9FD-A4CD695E1DC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="1" xr2:uid="{2F57C2A4-D20C-49EB-A9FD-A4CD695E1DC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="139">
   <si>
     <t>Task</t>
   </si>
@@ -251,6 +251,27 @@
     <t>Food Pending IR Close</t>
   </si>
   <si>
+    <t xml:space="preserve">Calls </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emails </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting Minutes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handover </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Training </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other Tasks </t>
+  </si>
+  <si>
     <t>Food Survey Report - Caterer wise - (Create)</t>
   </si>
   <si>
@@ -296,9 +317,6 @@
     <t>Dairy Orders Brakes</t>
   </si>
   <si>
-    <t>Face Mask Order</t>
-  </si>
-  <si>
     <t>Menu Comms Per Caterer</t>
   </si>
   <si>
@@ -338,9 +356,6 @@
     <t>Volume Sheet - Allan Reeder</t>
   </si>
   <si>
-    <t>Volume Sheet - Damas Gate (Cultural Snacks)</t>
-  </si>
-  <si>
     <t>Volume Sheet - Baby Provision</t>
   </si>
   <si>
@@ -350,9 +365,6 @@
     <t>Cultural Snacks</t>
   </si>
   <si>
-    <t>Dry Stock Invoices Log</t>
-  </si>
-  <si>
     <t>GP Log</t>
   </si>
   <si>
@@ -368,33 +380,18 @@
     <t>Dry Stock Form Update - Per Form</t>
   </si>
   <si>
-    <t>Compliance Data Log</t>
-  </si>
-  <si>
     <t>Comms</t>
   </si>
   <si>
-    <t>Hotel Setup log</t>
-  </si>
-  <si>
-    <t>Decant log</t>
-  </si>
-  <si>
-    <t>FBR (Simple)</t>
-  </si>
-  <si>
-    <t>FBR (Complicated)</t>
-  </si>
-  <si>
     <t>Menu Review - Per Week</t>
   </si>
   <si>
+    <t xml:space="preserve">Monthly Breads &amp; Fruits Expiry Report </t>
+  </si>
+  <si>
     <t>Food Trial Data Summary Report Per Site</t>
   </si>
   <si>
-    <t>Serco Sites Snacks Delivery &amp; Invoice Check</t>
-  </si>
-  <si>
     <t>Email Scanning - Food</t>
   </si>
   <si>
@@ -404,37 +401,61 @@
     <t>9 Cuisine Room Number Sheet Update</t>
   </si>
   <si>
-    <t>tt</t>
-  </si>
-  <si>
-    <t>gg</t>
+    <t>Volume Sheet - Cultural Snacks</t>
+  </si>
+  <si>
+    <t>Hotel Setup / Decant Log</t>
+  </si>
+  <si>
+    <t>FBR (Simple / Online)</t>
+  </si>
+  <si>
+    <t>FBR (Complicated / PDF)</t>
+  </si>
+  <si>
+    <t>Compliance / Safe Contractor Data Log</t>
+  </si>
+  <si>
+    <t>Weekly Reward Summary Per Site</t>
+  </si>
+  <si>
+    <t>ff</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Specify Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Type 1 For Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Specify No. Of Days</t>
+  </si>
+  <si>
+    <t>Specify Counts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specify Week Counts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specify Caterer Counts </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Specify Duration in Mins</t>
+  </si>
+  <si>
+    <t>Specify Task</t>
+  </si>
+  <si>
+    <t>Specify In Brief</t>
+  </si>
+  <si>
+    <t>ww</t>
   </si>
   <si>
     <t>CRH / Serious Food Concerns</t>
   </si>
   <si>
-    <t>Monthly Breads &amp; Fruits Expiry Report</t>
-  </si>
-  <si>
-    <t>Emails</t>
-  </si>
-  <si>
-    <t>Meeting</t>
-  </si>
-  <si>
-    <t>Meeting Minutes</t>
-  </si>
-  <si>
-    <t>Training</t>
-  </si>
-  <si>
-    <t>Other Tasks</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Textarea</t>
+    <t>Specify Site Count</t>
   </si>
 </sst>
 </file>
@@ -464,18 +485,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -505,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -527,7 +542,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1212,77 +1226,74 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58F9A6E-B79A-40E7-8D09-0CBFD34555C4}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:C88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:XFD98"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56.5703125" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" customWidth="1"/>
     <col min="3" max="3" width="26.140625" style="7" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B1" t="s">
-        <v>122</v>
+        <v>126</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1290,21 +1301,21 @@
         <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1312,43 +1323,43 @@
         <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1356,10 +1367,10 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1367,40 +1378,40 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1408,10 +1419,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1419,10 +1430,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1430,10 +1441,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1444,7 +1455,7 @@
         <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1452,10 +1463,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1463,10 +1474,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1474,10 +1485,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1485,10 +1496,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1496,10 +1507,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1507,10 +1518,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1518,10 +1529,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1529,10 +1540,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1540,10 +1551,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1551,10 +1562,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1562,7 +1573,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
         <v>130</v>
@@ -1573,7 +1584,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
         <v>130</v>
@@ -1584,7 +1595,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
         <v>130</v>
@@ -1595,7 +1606,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
         <v>130</v>
@@ -1606,7 +1617,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
         <v>130</v>
@@ -1617,7 +1628,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
         <v>130</v>
@@ -1628,7 +1639,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C37" t="s">
         <v>130</v>
@@ -1639,7 +1650,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
         <v>130</v>
@@ -1650,10 +1661,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1661,10 +1672,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1672,10 +1683,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1683,10 +1694,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1694,10 +1705,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1705,10 +1716,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1716,10 +1727,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1727,10 +1738,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1738,10 +1749,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1749,10 +1760,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1760,10 +1771,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1771,10 +1782,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1782,10 +1793,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1793,10 +1804,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1804,10 +1815,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1815,10 +1826,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>121</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1826,10 +1837,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1837,10 +1848,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1848,10 +1859,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1859,10 +1870,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1870,10 +1881,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1881,10 +1892,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1892,10 +1903,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1903,10 +1914,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C62" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1914,10 +1925,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1925,10 +1936,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1936,10 +1947,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>123</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1947,10 +1958,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1958,10 +1969,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1969,10 +1980,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
+        <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1980,10 +1991,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="C69" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1991,10 +2002,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="C70" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2002,10 +2013,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C71" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2013,10 +2024,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C72" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2024,10 +2035,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="C73" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2035,10 +2046,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2046,10 +2057,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C75" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2057,10 +2068,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="C76" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2068,10 +2079,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="C77" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2079,32 +2090,32 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>119</v>
+        <v>61</v>
       </c>
       <c r="C78" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
-        <v>120</v>
+      <c r="B79" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="C79" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" t="s">
-        <v>58</v>
+      <c r="B80" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="C80" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2112,10 +2123,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="C81" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2123,10 +2134,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C82" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2134,21 +2145,21 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C83" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>65</v>
+      <c r="B84" t="s">
+        <v>72</v>
       </c>
       <c r="C84" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2156,10 +2167,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="C85" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2167,10 +2178,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="C86" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2178,10 +2189,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="C87" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2189,43 +2200,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="C88" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>33</v>
-      </c>
-      <c r="C89" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>128</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>129</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
